--- a/QueryCau6.xlsx
+++ b/QueryCau6.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\OLAP\IS217_Q13_23521367_23520982\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\IS217_Q13_23521367_23520982\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEB45AE-3DBE-43E8-B0C6-1D5C537E08FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B338154E-AE98-48CE-9040-4292F2A223EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{7066EA09-6439-4741-AB0F-620A2E6BDFA8}"/>
+    <workbookView xWindow="4410" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{B03E8504-DC36-4796-806B-9314EA325751}"/>
   </bookViews>
   <sheets>
-    <sheet name="tmp475F" sheetId="1" r:id="rId1"/>
+    <sheet name="tmpA632" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8B142D5F-5714-4708-8614-9C1327B7DDB2}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmp475F.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
+  <connection id="1" xr16:uid="{80AD459C-D7D9-4E11-96BF-1111D157F620}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmpA632.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas_project;Data Source=SINISTER;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="US Accidents DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -59,49 +59,49 @@
     <t>Row Labels</t>
   </si>
   <si>
+    <t>Eastshore Fwy W</t>
+  </si>
+  <si>
+    <t>I-95 S</t>
+  </si>
+  <si>
+    <t>DangerIndex</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
     <t>Brooklyn Queens Expy</t>
   </si>
   <si>
-    <t>I-95 N</t>
-  </si>
-  <si>
-    <t>I-95 S</t>
+    <t>I-5 S</t>
+  </si>
+  <si>
+    <t>I-605 S</t>
+  </si>
+  <si>
+    <t>S John Young Pkwy</t>
+  </si>
+  <si>
+    <t>S Mooney Blvd</t>
   </si>
   <si>
     <t>S Orange Blossom Trl</t>
   </si>
   <si>
-    <t>DangerIndex</t>
+    <t>SW 137th Ave</t>
+  </si>
+  <si>
+    <t>W Sand Lake Rd</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>Total Accidents</t>
   </si>
   <si>
     <t>AvgSeverity</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>E Colonial Dr</t>
-  </si>
-  <si>
-    <t>International Dr</t>
-  </si>
-  <si>
-    <t>S Dixie Hwy</t>
-  </si>
-  <si>
-    <t>SW 117th Ave</t>
-  </si>
-  <si>
-    <t>SW 137th Ave</t>
-  </si>
-  <si>
-    <t>SW 8th St</t>
-  </si>
-  <si>
-    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -655,31 +655,31 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45970.684519097224" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{26C42B11-D092-41B7-BE06-F1D4124B6511}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45977.459135763886" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B6EA93DC-3B74-4DE6-8A86-B270F26ECEBB}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
-    <cacheField name="[Top10DangerousStreet]" caption="Top10DangerousStreet" numFmtId="0" hierarchy="55">
+    <cacheField name="[Top10DangerousStreet]" caption="Top10DangerousStreet" numFmtId="0" hierarchy="60">
       <sharedItems count="10">
-        <s v="[DIM LOCATION].[STREET].&amp;[Brooklyn Queens Expy]&amp;[Brooklyn]&amp;[Kings]&amp;[NY]" c="Brooklyn Queens Expy"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[E Colonial Dr]&amp;[Orlando]&amp;[Orange]&amp;[FL]" c="E Colonial Dr"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[I-95 N]&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]" c="I-95 N"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[I-95 S]&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]" c="I-95 S"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[International Dr]&amp;[Orlando]&amp;[Orange]&amp;[FL]" c="International Dr"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[S Dixie Hwy]&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]" c="S Dixie Hwy"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[S Orange Blossom Trl]&amp;[Orlando]&amp;[Orange]&amp;[FL]" c="S Orange Blossom Trl"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[SW 117th Ave]&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]" c="SW 117th Ave"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[SW 137th Ave]&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]" c="SW 137th Ave"/>
-        <s v="[DIM LOCATION].[STREET].&amp;[SW 8th St]&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]" c="SW 8th St"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[Brooklyn Queens Expy]&amp;[11377]&amp;[Woodside]&amp;[Queens]&amp;[NY]&amp;[US]" c="Brooklyn Queens Expy"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[Eastshore Fwy W]&amp;[94710]&amp;[Berkeley]&amp;[Alameda]&amp;[CA]&amp;[US]" c="Eastshore Fwy W"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[I-5 S]&amp;[90023]&amp;[Los Angeles]&amp;[Los Angeles]&amp;[CA]&amp;[US]" c="I-5 S"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[I-605 S]&amp;[90601]&amp;[Whittier]&amp;[Los Angeles]&amp;[CA]&amp;[US]" c="I-605 S"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[I-95 S]&amp;[22079]&amp;[Lorton]&amp;[Fairfax County]&amp;[VA]&amp;[US]" c="I-95 S"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[S John Young Pkwy]&amp;[32837]&amp;[Orlando]&amp;[Orange]&amp;[FL]&amp;[US]" c="S John Young Pkwy"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[S Mooney Blvd]&amp;[93277]&amp;[Visalia]&amp;[Tulare]&amp;[CA]&amp;[US]" c="S Mooney Blvd"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[S Orange Blossom Trl]&amp;[32837-8321]&amp;[Orlando]&amp;[Orange]&amp;[FL]&amp;[US]" c="S Orange Blossom Trl"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[SW 137th Ave]&amp;[33186]&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]&amp;[US]" c="SW 137th Ave"/>
+        <s v="[DIM LOCATION].[STREET].&amp;[W Sand Lake Rd]&amp;[32819]&amp;[Orlando]&amp;[Orange]&amp;[FL]&amp;[US]" c="W Sand Lake Rd"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[DangerIndex]" caption="DangerIndex" numFmtId="0" hierarchy="47" level="32767"/>
-    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="45" level="32767"/>
-    <cacheField name="[Measures].[AvgSeverity]" caption="AvgSeverity" numFmtId="0" hierarchy="46" level="32767"/>
-    <cacheField name="[DIM TIME].[YEAR].[YEAR]" caption="YEAR" numFmtId="0" hierarchy="30" level="1">
+    <cacheField name="[Measures].[DangerIndex]" caption="DangerIndex" numFmtId="0" hierarchy="49" level="32767"/>
+    <cacheField name="[DIM TIME].[YEAR].[YEAR]" caption="YEAR" numFmtId="0" hierarchy="32" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
+    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="47" level="32767"/>
+    <cacheField name="[Measures].[AvgSeverity]" caption="AvgSeverity" numFmtId="0" hierarchy="48" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="57">
+  <cacheHierarchies count="61">
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[AMENITY]" caption="AMENITY" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" allUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[BUMP]" caption="BUMP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" allUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[CROSSING]" caption="CROSSING" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" allUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
@@ -695,6 +695,7 @@
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL]" caption="TRAFFIC SIGNAL" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" allUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TURNING LOOP]" caption="TURNING LOOP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" allUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[CITY]" caption="CITY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[CITY].[All]" allUniqueName="[DIM LOCATION].[CITY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTRY]" caption="COUNTRY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTRY].[All]" allUniqueName="[DIM LOCATION].[COUNTRY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTY].[All]" allUniqueName="[DIM LOCATION].[COUNTY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM LOCATION].[Hierarchy].[All]" allUniqueName="[DIM LOCATION].[Hierarchy].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LATITUDE]" caption="LATITUDE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[LATITUDE].[All]" allUniqueName="[DIM LOCATION].[LATITUDE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
@@ -703,6 +704,7 @@
     <cacheHierarchy uniqueName="[DIM LOCATION].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STATE].[All]" allUniqueName="[DIM LOCATION].[STATE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[STREET]" caption="STREET" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STREET].[All]" allUniqueName="[DIM LOCATION].[STREET].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[ZIPCODE]" caption="ZIPCODE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[ZIPCODE].[All]" allUniqueName="[DIM LOCATION].[ZIPCODE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[DATE]" caption="DATE" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DATE].[All]" allUniqueName="[DIM TIME].[DATE].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[DAY]" caption="DAY" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DAY].[All]" allUniqueName="[DIM TIME].[DAY].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[DIM TIME].[Hierarchy].[All]" allUniqueName="[DIM TIME].[Hierarchy].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[HOUR]" caption="HOUR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[HOUR].[All]" allUniqueName="[DIM TIME].[HOUR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
@@ -713,7 +715,7 @@
     <cacheHierarchy uniqueName="[DIM TIME].[YEAR]" caption="YEAR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[YEAR].[All]" allUniqueName="[DIM TIME].[YEAR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[DIM WEATHER].[HUMIDITY]" caption="HUMIDITY" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[HUMIDITY].[All]" allUniqueName="[DIM WEATHER].[HUMIDITY].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
@@ -732,12 +734,12 @@
     <cacheHierarchy uniqueName="[Measures].[DURATION]" caption="DURATION" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Total Accidents]" caption="Total Accidents" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[AvgSeverity]" caption="AvgSeverity" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[DangerIndex]" caption="DangerIndex" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0" oneField="1">
@@ -747,12 +749,15 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[YoYGrowth_Percent]" caption="YoYGrowth_Percent" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Avg YoY Growth Range]" caption="Avg YoY Growth Range" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Traffic Signal)]" caption="Accidents (Traffic Signal)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Stop Sign)]" caption="Accidents (Stop Sign)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Top20CityHighestGrowth]" caption="Top20CityHighestGrowth" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="36" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="20" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="34" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
+    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="22" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
@@ -760,13 +765,12 @@
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
           <x14:cacheHierarchy>
             <x14:setLevels count="1">
-              <x14:setLevel hierarchy="21"/>
+              <x14:setLevel hierarchy="22"/>
             </x14:setLevels>
           </x14:cacheHierarchy>
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="5">
@@ -794,7 +798,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1AACB3A-097E-44ED-BA3A-69DD35277888}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A7924E5-1700-494B-B699-176D697A125E}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
@@ -812,9 +816,9 @@
       </items>
     </pivotField>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -866,14 +870,16 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="4" hier="30" name="[DIM TIME].[YEAR].&amp;[2022]" cap="2022"/>
+    <pageField fld="2" hier="32" name="[DIM TIME].[YEAR].&amp;[2022]" cap="2022"/>
   </pageFields>
   <dataFields count="3">
     <dataField fld="1" baseField="0" baseItem="0"/>
-    <dataField fld="2" baseField="0" baseItem="0"/>
     <dataField fld="3" baseField="0" baseItem="0"/>
+    <dataField fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="57">
+  <pivotHierarchies count="61">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -924,6 +930,8 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -934,7 +942,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="55"/>
+    <rowHierarchyUsage hierarchyUsage="60"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -1266,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A7993-E14D-40C5-AF4F-79047BF688FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90C4A7-A335-43E6-911F-CEC8B42666B8}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1281,10 +1289,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s" vm="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,24 +1300,24 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>3700.32</v>
+        <v>2154.5500000000002</v>
       </c>
       <c r="C4" s="4">
-        <v>1779</v>
+        <v>498</v>
       </c>
       <c r="D4" s="3">
         <v>2.08</v>
@@ -1317,69 +1325,69 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2296</v>
+        <v>1596.44</v>
       </c>
       <c r="C5" s="4">
-        <v>1148</v>
+        <v>369</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>2415.69</v>
+        <v>1671.92</v>
       </c>
       <c r="C6" s="4">
-        <v>1167</v>
+        <v>372</v>
       </c>
       <c r="D6" s="3">
-        <v>2.0699999999999998</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>2775.39</v>
+        <v>1876.79</v>
       </c>
       <c r="C7" s="4">
-        <v>1303</v>
+        <v>438</v>
       </c>
       <c r="D7" s="3">
-        <v>2.13</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>2376</v>
+        <v>1595.84</v>
       </c>
       <c r="C8" s="4">
-        <v>1188</v>
+        <v>395</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>2638</v>
+        <v>1908</v>
       </c>
       <c r="C9" s="4">
-        <v>1319</v>
+        <v>477</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -1387,27 +1395,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>4930</v>
+        <v>1599.52</v>
       </c>
       <c r="C10" s="4">
-        <v>2465</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>2702</v>
+        <v>1688</v>
       </c>
       <c r="C11" s="4">
-        <v>1351</v>
+        <v>422</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
@@ -1415,13 +1423,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>2814</v>
+        <v>3040</v>
       </c>
       <c r="C12" s="4">
-        <v>1407</v>
+        <v>760</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -1429,13 +1437,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>2310</v>
+        <v>1864</v>
       </c>
       <c r="C13" s="4">
-        <v>1155</v>
+        <v>466</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
